--- a/StructureDefinition-dk-core-sor-identifier.xlsx
+++ b/StructureDefinition-dk-core-sor-identifier.xlsx
@@ -343,7 +343,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-min-digits-sor:SOR Identifiers are at minimum 15 digits long. See https://sundhedsdatastyrelsen.dk/-/media/sds/filer/rammer-og-retningslinjer/organisationsregistrering/adgang-til-sor/info-om-opbygningen-af-sor-ider.pdf {matches('^([0-9]){15,}$')}</t>
+min-digits-sor:SOR Identifiers are at minimum 11 digits long. See https://sundhedsdatastyrelsen.dk/-/media/sds/filer/rammer-og-retningslinjer/organisationsregistrering/adgang-til-sor/info-om-opbygningen-af-sor-ider.pdf {matches('^([0-9]){11,}$')}</t>
   </si>
   <si>
     <t>CX.1 / EI.1</t>
